--- a/config_Release/act_030_cwlb_config.xlsx
+++ b/config_Release/act_030_cwlb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>icon|活动图标</t>
   </si>
@@ -108,30 +108,6 @@
     <t>498元礼包</t>
   </si>
   <si>
-    <t>"60万","3000","抽奖券*1",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"200万","1万","抽奖券*4",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"480万","3万","抽奖券*10",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"980万","10万","抽奖券*20",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"1980万","50万","抽奖券*30",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"4980万","200万","抽奖券*50",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>12000金币</t>
   </si>
   <si>
@@ -147,17 +123,10 @@
     <t>50000金币</t>
   </si>
   <si>
-    <t>100元话费</t>
-  </si>
-  <si>
     <t>jing_bi</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>prop_web_chip_huafei</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ty_icon_jb_30y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -174,30 +143,79 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>com_award_icon_hfsp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>award_id|奖励ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_icon_jb_30y","ty_icon_yxb_3","ty_icon_cjq",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_48y","ty_icon_yxb_2","ty_icon_cjq",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","ty_icon_yxb_2","ty_icon_cjq",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_98y","ty_icon_yxb_4","ty_icon_cjq",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_198y","ty_icon_yxb_5","ty_icon_cjq",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","ty_icon_yxb_5","ty_icon_cjq",</t>
+    <t>500京东卡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key|权限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cps_xiaomi</t>
+  </si>
+  <si>
+    <t>cps_xiaomi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jdk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y","ty_icon_yb_1","cwzp_icon_cjq",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_48y","ty_icon_yb_1","cwzp_icon_cjq",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","ty_icon_yb_2","cwzp_icon_cjq",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","ty_icon_yb_3","cwzp_icon_cjq",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","ty_icon_yb_4","cwzp_icon_cjq",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_yb_5","cwzp_icon_cjq",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*60万","鱼币*3000","抽奖券*1",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*200万","鱼币*1万","抽奖券*4",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*480万","鱼币*3万","抽奖券*10",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*980万","鱼币*10万","抽奖券*20",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*1980万","鱼币*50万","抽奖券*30",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*4980万","鱼币*200万","抽奖券*50",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -276,7 +294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -288,6 +306,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -565,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -579,9 +603,10 @@
     <col min="4" max="4" width="27.125" customWidth="1"/>
     <col min="5" max="5" width="15.25" customWidth="1"/>
     <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -598,30 +623,36 @@
         <v>6</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>12000</v>
       </c>
-      <c r="F2">
-        <v>11751</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="6">
+        <v>11773</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -629,47 +660,53 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="E3">
         <v>15</v>
       </c>
-      <c r="F3">
-        <v>11752</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" s="6">
+        <v>11774</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>20000</v>
       </c>
-      <c r="F4">
-        <v>11753</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4" s="6">
+        <v>11775</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -677,45 +714,52 @@
       <c r="E5">
         <v>30</v>
       </c>
-      <c r="F5">
-        <v>11754</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" s="6">
+        <v>11776</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>50000</v>
       </c>
-      <c r="F6">
-        <v>11755</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" s="6">
+        <v>11777</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>37</v>
+      <c r="B7" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7">
-        <v>10000</v>
+      <c r="D7" s="2"/>
+      <c r="F7" s="6">
+        <v>11778</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -730,7 +774,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -768,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>10311</v>
+        <v>10324</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -777,10 +821,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -788,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>10312</v>
+        <v>10325</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -797,10 +841,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -808,7 +852,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>10313</v>
+        <v>10326</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -817,18 +861,18 @@
         <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>10314</v>
+      <c r="B5" s="2">
+        <v>10327</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -837,18 +881,18 @@
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>10315</v>
+      <c r="B6" s="2">
+        <v>10328</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -857,18 +901,18 @@
         <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>10316</v>
+      <c r="B7" s="2">
+        <v>10329</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -877,15 +921,15 @@
         <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_Release/act_030_cwlb_config.xlsx
+++ b/config_Release/act_030_cwlb_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>icon|活动图标</t>
   </si>
@@ -147,74 +147,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>500京东卡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>key|权限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cps_xiaomi</t>
-  </si>
-  <si>
-    <t>cps_xiaomi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jdk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_30y","ty_icon_yb_1","cwzp_icon_cjq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_48y","ty_icon_yb_1","cwzp_icon_cjq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","ty_icon_yb_2","cwzp_icon_cjq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_98y","ty_icon_yb_3","cwzp_icon_cjq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_198y","ty_icon_yb_4","cwzp_icon_cjq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","ty_icon_yb_5","cwzp_icon_cjq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金币*60万","鱼币*3000","抽奖券*1",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金币*200万","鱼币*1万","抽奖券*4",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金币*480万","鱼币*3万","抽奖券*10",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金币*980万","鱼币*10万","抽奖券*20",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金币*1980万","鱼币*50万","抽奖券*30",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金币*4980万","鱼币*200万","抽奖券*50",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>shop_gold_sum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*4980万","小游戏币*200万","抽奖券*50",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*1980万","小游戏币*50万","抽奖券*30",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*980万","小游戏币*10万","抽奖券*20",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*480万","小游戏币*3万","抽奖券*10",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*60万","小游戏币*3000","抽奖券*1",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金币*200万","小游戏币*1万","抽奖券*4",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为P40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s11kh_icon_sj</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","ty_icon_yxb_5","cwzp_icon_cjq",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_198y","ty_icon_yxb_4","cwzp_icon_cjq",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_98y","ty_icon_yxb_3","cwzp_icon_cjq",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","ty_icon_yxb_2","cwzp_icon_cjq",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_48y","ty_icon_yxb_1","cwzp_icon_cjq",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_30y","ty_icon_yxb_1","cwzp_icon_cjq",</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -222,7 +211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,8 +240,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +258,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -307,11 +309,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -592,7 +599,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -625,32 +632,23 @@
       <c r="F1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2">
-        <v>12000</v>
-      </c>
-      <c r="F2" s="6">
-        <v>11773</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="F2" s="10">
+        <v>11823</v>
+      </c>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -663,16 +661,13 @@
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>15</v>
       </c>
-      <c r="F3" s="6">
-        <v>11774</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
+      <c r="F3" s="10">
+        <v>11819</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -691,11 +686,8 @@
       <c r="E4">
         <v>20000</v>
       </c>
-      <c r="F4" s="6">
-        <v>11775</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
+      <c r="F4" s="10">
+        <v>11820</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -714,11 +706,8 @@
       <c r="E5">
         <v>30</v>
       </c>
-      <c r="F5" s="6">
-        <v>11776</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
+      <c r="F5" s="10">
+        <v>11821</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -737,29 +726,28 @@
       <c r="E6">
         <v>50000</v>
       </c>
-      <c r="F6" s="6">
-        <v>11777</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
+      <c r="F6" s="10">
+        <v>11822</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>34</v>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="F7" s="6">
-        <v>11778</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>12000</v>
+      </c>
+      <c r="F7" s="10">
+        <v>11818</v>
       </c>
     </row>
   </sheetData>
@@ -771,10 +759,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -807,126 +795,135 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>10324</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="8">
+        <v>10357</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="9">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>10358</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="9">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>10359</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9">
+        <v>4</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>10360</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9">
+        <v>3</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>10361</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>10362</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2">
+      <c r="D7" s="9">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>10325</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>10326</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>10327</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>10328</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>10329</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
+    </row>
+    <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_Release/act_030_cwlb_config.xlsx
+++ b/config_Release/act_030_cwlb_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|配置" sheetId="6" r:id="rId1"/>
@@ -175,35 +175,29 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>华为P40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s11kh_icon_sj</t>
+    <t>美的空调</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"ty_icon_jb_498y","ty_icon_yxb_5","cwzp_icon_cjq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"ty_icon_jb_198y","ty_icon_yxb_4","cwzp_icon_cjq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"ty_icon_jb_98y","ty_icon_yxb_3","cwzp_icon_cjq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"ty_icon_jb_50y","ty_icon_yxb_2","cwzp_icon_cjq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"ty_icon_jb_48y","ty_icon_yxb_1","cwzp_icon_cjq",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>"ty_icon_jb_30y","ty_icon_yxb_1","cwzp_icon_cjq",</t>
+  </si>
+  <si>
+    <t>s12xylb_icon_mdkt</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +242,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,7 +257,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,11 +313,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -639,14 +639,14 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="10">
-        <v>11823</v>
+        <v>11856</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -667,7 +667,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="10">
-        <v>11819</v>
+        <v>11852</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -687,7 +687,7 @@
         <v>20000</v>
       </c>
       <c r="F4" s="10">
-        <v>11820</v>
+        <v>11853</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -707,7 +707,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="10">
-        <v>11821</v>
+        <v>11854</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -727,7 +727,7 @@
         <v>50000</v>
       </c>
       <c r="F6" s="10">
-        <v>11822</v>
+        <v>11855</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -747,10 +747,13 @@
         <v>12000</v>
       </c>
       <c r="F7" s="10">
-        <v>11818</v>
+        <v>11851</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="F2:F7">
+    <sortCondition descending="1" ref="F7"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -761,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -795,135 +798,135 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
-        <v>10357</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="9">
+        <v>10396</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>6</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
-        <v>10358</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="9">
+        <v>10397</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>5</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
-        <v>10359</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="9">
+        <v>10398</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>4</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
-        <v>10360</v>
+      <c r="B5" s="9">
+        <v>10399</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>3</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
-        <v>10361</v>
+      <c r="B6" s="9">
+        <v>10400</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>2</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
-        <v>10362</v>
+      <c r="B7" s="9">
+        <v>10401</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>1</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_Release/act_030_cwlb_config.xlsx
+++ b/config_Release/act_030_cwlb_config.xlsx
@@ -5,22 +5,44 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_1.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25740" windowHeight="11790" tabRatio="779" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="config|配置" sheetId="6" r:id="rId1"/>
-    <sheet name="gift|礼包" sheetId="3" r:id="rId2"/>
+    <sheet name="platform_channel|区分平台或渠道" sheetId="8" r:id="rId1"/>
+    <sheet name="other_data" sheetId="7" r:id="rId2"/>
+    <sheet name="config1|配置1" sheetId="6" r:id="rId3"/>
+    <sheet name="gift1|礼包1" sheetId="3" r:id="rId4"/>
+    <sheet name="config2|配置2" sheetId="9" r:id="rId5"/>
+    <sheet name="gift2|礼包2" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>permission|权限</t>
+  </si>
+  <si>
+    <t>item_key|道具key</t>
+  </si>
+  <si>
+    <t>sta_t|活动开始时间戳</t>
+  </si>
+  <si>
+    <t>end_t|活动结束时间戳</t>
+  </si>
+  <si>
+    <t>line|</t>
+  </si>
   <si>
     <t>icon|活动图标</t>
   </si>
@@ -49,180 +71,412 @@
     </r>
   </si>
   <si>
+    <t>asset_type|资产类型</t>
+  </si>
+  <si>
+    <t>value|值</t>
+  </si>
+  <si>
+    <t>award_id|奖励ID</t>
+  </si>
+  <si>
+    <t>ty_icon_flq2</t>
+  </si>
+  <si>
+    <t>15福利券</t>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_198y</t>
+  </si>
+  <si>
+    <t>20000金币</t>
+  </si>
+  <si>
+    <t>jing_bi</t>
+  </si>
+  <si>
+    <t>ty_icon_flq3</t>
+  </si>
+  <si>
+    <t>30福利券</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_2498y</t>
+  </si>
+  <si>
+    <t>50000金币</t>
+  </si>
+  <si>
+    <t>ty_icon_jb_30y</t>
+  </si>
+  <si>
+    <t>12000金币</t>
+  </si>
+  <si>
+    <t>gift_id|礼包ID</t>
+  </si>
+  <si>
     <t>name|名字</t>
   </si>
   <si>
     <t>order|排序</t>
   </si>
   <si>
-    <t>ty_icon_flq2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>asset_type|资产类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>value|值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_gold_sum</t>
-  </si>
-  <si>
-    <t>line|</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gift_id|礼包ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>pay_icon|图标</t>
   </si>
   <si>
     <t>pay_name|图标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pay_icon|图标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>line|</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Isindefinitely|是否限次(1=是,0=否)</t>
+  </si>
+  <si>
+    <t>Isrecommended|是否推荐</t>
+  </si>
+  <si>
+    <t>tips|提示</t>
+  </si>
+  <si>
+    <t>498元礼包</t>
+  </si>
+  <si>
+    <t>"nil","nil","双倍奖励卡，请在3D捕鱼中使用"</t>
+  </si>
+  <si>
+    <t>198元礼包</t>
+  </si>
+  <si>
+    <t>98元礼包</t>
+  </si>
+  <si>
+    <t>48元礼包</t>
+  </si>
+  <si>
+    <t>20元礼包</t>
   </si>
   <si>
     <t>6元礼包</t>
   </si>
   <si>
-    <t>20元礼包</t>
-  </si>
-  <si>
-    <t>48元礼包</t>
-  </si>
-  <si>
-    <t>98元礼包</t>
-  </si>
-  <si>
-    <t>198元礼包</t>
-  </si>
-  <si>
-    <t>498元礼包</t>
-  </si>
-  <si>
-    <t>12000金币</t>
-  </si>
-  <si>
-    <t>15福利券</t>
-  </si>
-  <si>
-    <t>20000金币</t>
-  </si>
-  <si>
-    <t>30福利券</t>
-  </si>
-  <si>
-    <t>50000金币</t>
-  </si>
-  <si>
-    <t>jing_bi</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_30y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_198y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_2498y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>award_id|奖励ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_gold_sum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金币*4980万","小游戏币*200万","抽奖券*50",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金币*1980万","小游戏币*50万","抽奖券*30",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金币*980万","小游戏币*10万","抽奖券*20",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金币*480万","小游戏币*3万","抽奖券*10",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金币*60万","小游戏币*3000","抽奖券*1",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"金币*200万","小游戏币*1万","抽奖券*4",</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>美的空调</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_icon_jb_498y","ty_icon_yxb_5","cwzp_icon_cjq",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_198y","ty_icon_yxb_4","cwzp_icon_cjq",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_98y","ty_icon_yxb_3","cwzp_icon_cjq",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_50y","ty_icon_yxb_2","cwzp_icon_cjq",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_48y","ty_icon_yxb_1","cwzp_icon_cjq",</t>
-  </si>
-  <si>
-    <t>"ty_icon_jb_30y","ty_icon_yxb_1","cwzp_icon_cjq",</t>
-  </si>
-  <si>
-    <t>s12xylb_icon_mdkt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>"nil","nil","请在苹果大战中使用"</t>
+  </si>
+  <si>
+    <t>box_exchange_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>help_info|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活动规则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活动时间不用改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>客户端自己算</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活动时间：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>8:00-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>23:59:59</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+"2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>活动期间购买礼包赠送抽奖券，使用抽奖券可参与抽奖。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>",
+"3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请及时使用您的抽奖券，活动结束后未使用的抽奖券视为放弃。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111F2C"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>",</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_qdlb_cjq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_no_cjj_gej_exchange</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_cjj_gej_exchange</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为P40</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2020万","抽奖券*30","双倍奖励*10",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"990万","抽奖券*20","双倍奖励*5",</t>
+  </si>
+  <si>
+    <t>"483万","抽奖券*3","双倍奖励*3",</t>
+  </si>
+  <si>
+    <t>"200万","抽奖券*4","双倍奖励*2",</t>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","双倍奖励*1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","cwzp_icon_cjq","zpg_icon_yg",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_icon_jb_50y","cwzp_icon_cjq","zpg_icon_shui",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5180万","抽奖券*50","太阳*20",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2020万","抽奖券*30","太阳*10",</t>
+  </si>
+  <si>
+    <t>"990万","抽奖券*20","太阳*2",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"483万","抽奖券*3","水滴*6",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万","抽奖券*4","水滴*2",</t>
+  </si>
+  <si>
+    <t>"60万","抽奖券*1","水滴*1",</t>
+  </si>
+  <si>
+    <t>"ty_icon_jb_498y","cwzp_icon_cjq","3dby_btn_jb",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5180万","抽奖券*50","双倍奖励*15",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwlb_icon_sw_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwlb_icon_sw_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -241,6 +495,32 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -251,19 +531,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,30 +574,48 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -596,10 +894,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="9">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="70.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1609804800</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1610380799</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -608,164 +1021,163 @@
     <col min="2" max="2" width="19.375" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
     <col min="4" max="4" width="27.125" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.25" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>12000</v>
+      </c>
+      <c r="F2" s="15">
+        <v>11895</v>
+      </c>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="F2" s="10">
-        <v>11856</v>
-      </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E3">
         <v>15</v>
       </c>
-      <c r="F3" s="10">
-        <v>11852</v>
+      <c r="F3" s="15">
+        <v>11896</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
+      <c r="B4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="E4">
         <v>20000</v>
       </c>
-      <c r="F4" s="10">
-        <v>11853</v>
+      <c r="F4" s="15">
+        <v>11897</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
+      <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>30</v>
       </c>
-      <c r="F5" s="10">
-        <v>11854</v>
+      <c r="F5" s="15">
+        <v>11898</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
+      <c r="B6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="E6">
         <v>50000</v>
       </c>
-      <c r="F6" s="10">
-        <v>11855</v>
+      <c r="F6" s="15">
+        <v>11899</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>12000</v>
-      </c>
-      <c r="F7" s="10">
-        <v>11851</v>
+      <c r="B7" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="F7" s="15">
+        <v>11900</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="F2:F7">
     <sortCondition descending="1" ref="F7"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -774,162 +1186,628 @@
     <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.5" customWidth="1"/>
     <col min="6" max="6" width="44.375" customWidth="1"/>
+    <col min="7" max="7" width="30.875" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="38.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16">
+        <v>10413</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B3" s="16">
+        <v>10414</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7">
+      <c r="B4" s="16">
+        <v>10415</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16">
+        <v>10416</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16">
+        <v>10417</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16">
+        <v>10418</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
-        <v>10396</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="8">
-        <v>6</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9">
-        <v>10397</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="8">
-        <v>5</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="E7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9">
-        <v>10398</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8">
-        <v>4</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9">
-        <v>10399</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="8">
-        <v>3</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9">
-        <v>10400</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="8">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9">
-        <v>10401</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="27.125" customWidth="1"/>
+    <col min="5" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>12000</v>
+      </c>
+      <c r="F2" s="15">
+        <v>11895</v>
+      </c>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3" s="15">
+        <v>11896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>20000</v>
+      </c>
+      <c r="F4" s="15">
+        <v>11897</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5" s="15">
+        <v>11898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>50000</v>
+      </c>
+      <c r="F6" s="15">
+        <v>11899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="F7" s="15">
+        <v>11900</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="50.5" customWidth="1"/>
+    <col min="6" max="6" width="44.375" customWidth="1"/>
+    <col min="7" max="7" width="30.875" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="28.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <v>10419</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14">
+        <v>10420</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14">
+        <v>10421</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14">
+        <v>10422</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14">
+        <v>10423</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14">
+        <v>10424</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>